--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1204"/>
+  <dimension ref="A1:N1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64228,6 +64228,1116 @@
       </c>
       <c r="N1204" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="inlineStr">
+        <is>
+          <t>977b4a62-423f-46d9-953d-6d1b7c66a220</t>
+        </is>
+      </c>
+      <c r="B1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1205" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1205" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>Spotify USA</t>
+        </is>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1205" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1205" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="inlineStr">
+        <is>
+          <t>0102379b-9349-4ff1-ac46-86ccaadd81e2</t>
+        </is>
+      </c>
+      <c r="B1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1206" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1206" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>SHELL OIL 57443148903</t>
+        </is>
+      </c>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1206" t="n">
+        <v>-28.34</v>
+      </c>
+      <c r="J1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1206" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="inlineStr">
+        <is>
+          <t>3062e59b-f2d3-4876-8a7a-4a0457d3e605</t>
+        </is>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1207" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="E1207" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>PORTLAND GENERAL ELECTRIC</t>
+        </is>
+      </c>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1207" t="n">
+        <v>-46.65</v>
+      </c>
+      <c r="J1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1207" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="N1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="inlineStr">
+        <is>
+          <t>90795668-f270-4130-8dfe-92b20ebf28f8</t>
+        </is>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1208" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>COIN METER LAUNDRY KIOSK/</t>
+        </is>
+      </c>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1208" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+      <c r="N1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="inlineStr">
+        <is>
+          <t>960275c0-7830-442b-b655-b135efdf26ce</t>
+        </is>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1209" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="E1209" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>FARMERS INS BILLING</t>
+        </is>
+      </c>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>-222</v>
+      </c>
+      <c r="J1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1209" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="N1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="inlineStr">
+        <is>
+          <t>400b0007-919c-4c50-b5de-b26d04d47b58</t>
+        </is>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1210" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1210" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Microsoft*Subscription</t>
+        </is>
+      </c>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="J1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1210" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="inlineStr">
+        <is>
+          <t>6a85fad0-2435-4c0b-8516-3b1966b77495</t>
+        </is>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1211" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="E1211" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="J1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1211" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="inlineStr">
+        <is>
+          <t>81ff1ca3-99ca-41de-bb9b-eb07ecd56338</t>
+        </is>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1212" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>PEARL HARDWARE</t>
+        </is>
+      </c>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>-50.45</v>
+      </c>
+      <c r="J1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1212" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="N1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="inlineStr">
+        <is>
+          <t>a82bd995-d4d0-4237-8638-4978482a5ae5</t>
+        </is>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1213" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>SQ *ALAINA ALBERTS</t>
+        </is>
+      </c>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>-58.8</v>
+      </c>
+      <c r="J1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1213" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="inlineStr">
+        <is>
+          <t>c4c3ab85-a8d5-42d6-8600-5d1c5e741dcc</t>
+        </is>
+      </c>
+      <c r="B1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1214" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>-48</v>
+      </c>
+      <c r="J1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1214" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="inlineStr">
+        <is>
+          <t>8ccc273f-0718-4706-aff8-055e248df0c3</t>
+        </is>
+      </c>
+      <c r="B1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1215" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1215" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1215" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1215" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="inlineStr">
+        <is>
+          <t>d7c5d884-c9de-443f-b16a-0f8f19526c86</t>
+        </is>
+      </c>
+      <c r="B1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1216" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1216" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1216" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="J1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1216" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="inlineStr">
+        <is>
+          <t>cb6a9a5c-099f-405a-bfde-dca440b3334e</t>
+        </is>
+      </c>
+      <c r="B1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1217" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1217" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1217" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1217" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="inlineStr">
+        <is>
+          <t>a6b5b091-7138-4c22-82af-99aadae21492</t>
+        </is>
+      </c>
+      <c r="B1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1218" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1218" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1218" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1218" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="inlineStr">
+        <is>
+          <t>c528aae9-a068-4803-9bef-d2e69d8d57ac</t>
+        </is>
+      </c>
+      <c r="B1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1219" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1219" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1219" t="n">
+        <v>-18.11</v>
+      </c>
+      <c r="J1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1219" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="inlineStr">
+        <is>
+          <t>97d3e67d-9770-4bd4-8833-4ebd07fcf61e</t>
+        </is>
+      </c>
+      <c r="B1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1220" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1220" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1220" t="n">
+        <v>-41.65</v>
+      </c>
+      <c r="J1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1220" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="inlineStr">
+        <is>
+          <t>2f6b7380-409f-4882-b2e3-b030e92976f2</t>
+        </is>
+      </c>
+      <c r="B1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1221" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1221" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>SQ *BOXER RAMEN - SAVIER</t>
+        </is>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1221" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="J1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1221" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="inlineStr">
+        <is>
+          <t>14cec911-f921-4922-b2ac-a44837a64026</t>
+        </is>
+      </c>
+      <c r="B1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1222" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1222" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1222" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="J1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1222" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="inlineStr">
+        <is>
+          <t>1e617736-6271-420e-b751-6562d67187fd</t>
+        </is>
+      </c>
+      <c r="B1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1223" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1223" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1223" t="n">
+        <v>-15.52</v>
+      </c>
+      <c r="J1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1223" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="inlineStr">
+        <is>
+          <t>dd9593a1-c666-410d-81a4-330abc216393</t>
+        </is>
+      </c>
+      <c r="B1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1224" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="E1224" t="inlineStr"/>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/04/2023 at 13:30 BD gift towards ne</t>
+        </is>
+      </c>
+      <c r="G1224" t="inlineStr"/>
+      <c r="H1224" t="inlineStr"/>
+      <c r="I1224" t="n">
+        <v>700</v>
+      </c>
+      <c r="J1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1224" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+      <c r="N1224" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1224"/>
+  <dimension ref="A1:N1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65337,6 +65337,708 @@
         </is>
       </c>
       <c r="N1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="inlineStr">
+        <is>
+          <t>b947ff04-c6da-48a1-ba0e-2505e7cf645c</t>
+        </is>
+      </c>
+      <c r="B1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1225" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="E1225" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>Amazon Prime*6X2DE0NS3</t>
+        </is>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1225" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="J1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1225" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="inlineStr">
+        <is>
+          <t>bb5aba80-4a7c-41e7-820e-2a515f620a11</t>
+        </is>
+      </c>
+      <c r="B1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1226" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1226" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1226" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="J1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1226" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="inlineStr">
+        <is>
+          <t>b52f2b12-9a00-4719-a75f-ec0fba46ee53</t>
+        </is>
+      </c>
+      <c r="B1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1227" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1227" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1227" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1227" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="inlineStr">
+        <is>
+          <t>52d5979e-4b22-43bd-b5f8-557b7d624897</t>
+        </is>
+      </c>
+      <c r="B1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1228" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1228" t="n">
+        <v>-67</v>
+      </c>
+      <c r="J1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1228" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="inlineStr">
+        <is>
+          <t>557f85a2-5b66-41bb-81b0-ed8b7407c699</t>
+        </is>
+      </c>
+      <c r="B1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1229" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1229" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1229" t="n">
+        <v>-115.88</v>
+      </c>
+      <c r="J1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1229" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="inlineStr">
+        <is>
+          <t>5afc76f0-c794-4ac2-999a-a80231a13e51</t>
+        </is>
+      </c>
+      <c r="B1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1230" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1230" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>SQ *BOXER RAMEN - SAVIER</t>
+        </is>
+      </c>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>-39</v>
+      </c>
+      <c r="J1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1230" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="inlineStr">
+        <is>
+          <t>50fd8aec-6324-4d30-8b7e-79f92399f0b2</t>
+        </is>
+      </c>
+      <c r="B1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1231" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1231" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1231" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1231" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="inlineStr">
+        <is>
+          <t>fa8e09cb-862b-49d6-a28d-dbd8f111f7a9</t>
+        </is>
+      </c>
+      <c r="B1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1232" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1232" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1232" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="inlineStr">
+        <is>
+          <t>589aa117-4d85-4bdf-81ae-f45a5a825b14</t>
+        </is>
+      </c>
+      <c r="B1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1233" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1233" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>BAR WEST</t>
+        </is>
+      </c>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1233" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="inlineStr">
+        <is>
+          <t>b413ada0-07b8-44d1-bcee-75e0e9cec216</t>
+        </is>
+      </c>
+      <c r="B1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1234" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="E1234" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>SQ *THE OLD PORTLAND</t>
+        </is>
+      </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>-48.3</v>
+      </c>
+      <c r="J1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1234" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="inlineStr">
+        <is>
+          <t>f86ee7d8-a1a5-4ba6-892a-80c9c5f683ba</t>
+        </is>
+      </c>
+      <c r="B1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1235" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="E1235" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>SQ *THE OLD PORTLAND</t>
+        </is>
+      </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1235" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="J1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1235" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="inlineStr">
+        <is>
+          <t>3344f505-5904-4546-8254-4fe7cbb232e9</t>
+        </is>
+      </c>
+      <c r="B1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1236" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1236" t="inlineStr"/>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/13/2023 at 13:25 34th BD dinner</t>
+        </is>
+      </c>
+      <c r="G1236" t="inlineStr"/>
+      <c r="H1236" t="inlineStr"/>
+      <c r="I1236" t="n">
+        <v>200</v>
+      </c>
+      <c r="J1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1236" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="inlineStr">
+        <is>
+          <t>9c05881b-ee7a-4e9c-b8d7-02a15d9844a5</t>
+        </is>
+      </c>
+      <c r="B1237" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1237" t="inlineStr"/>
+      <c r="D1237" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1237" t="inlineStr"/>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr"/>
+      <c r="I1237" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="J1237" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="inlineStr"/>
+      <c r="N1237" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1237"/>
+  <dimension ref="A1:N1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66039,6 +66039,452 @@
       </c>
       <c r="M1237" t="inlineStr"/>
       <c r="N1237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="inlineStr">
+        <is>
+          <t>a19bd1c9-1ebf-473c-a43f-f386de448571</t>
+        </is>
+      </c>
+      <c r="B1238" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="E1238" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>ALL HEART YOGA</t>
+        </is>
+      </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1238" t="n">
+        <v>-128</v>
+      </c>
+      <c r="J1238" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="inlineStr"/>
+      <c r="N1238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="inlineStr">
+        <is>
+          <t>20ccf7d9-2bf2-4951-8527-c6fdba0d191e</t>
+        </is>
+      </c>
+      <c r="B1239" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1239" t="inlineStr"/>
+      <c r="D1239" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1239" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>REI.COM  800-426-4840</t>
+        </is>
+      </c>
+      <c r="G1239" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1239" t="n">
+        <v>-83.09</v>
+      </c>
+      <c r="J1239" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="inlineStr"/>
+      <c r="N1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="inlineStr">
+        <is>
+          <t>72947e24-823d-4c64-aa9b-e877cce88df1</t>
+        </is>
+      </c>
+      <c r="B1240" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1240" t="inlineStr"/>
+      <c r="D1240" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1240" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>GRAMMARLY COMVZBK3Q</t>
+        </is>
+      </c>
+      <c r="G1240" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1240" t="n">
+        <v>-86.40000000000001</v>
+      </c>
+      <c r="J1240" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="inlineStr"/>
+      <c r="N1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="inlineStr">
+        <is>
+          <t>e3b1ff1b-cfe5-448e-b91f-8c5fed83a3fa</t>
+        </is>
+      </c>
+      <c r="B1241" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1241" t="inlineStr"/>
+      <c r="D1241" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="E1241" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>SQ *JD'S SHOE REPAIR</t>
+        </is>
+      </c>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1241" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J1241" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="inlineStr"/>
+      <c r="N1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="inlineStr">
+        <is>
+          <t>be0653d1-18c8-47c4-ad5e-37ff893f5298</t>
+        </is>
+      </c>
+      <c r="B1242" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1242" t="inlineStr"/>
+      <c r="D1242" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="E1242" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>76 - PLAID PANTRY 83</t>
+        </is>
+      </c>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1242" t="n">
+        <v>-34.01</v>
+      </c>
+      <c r="J1242" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="inlineStr"/>
+      <c r="N1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="inlineStr">
+        <is>
+          <t>1f7db794-5f46-40d5-88b9-236d8dbc6d1e</t>
+        </is>
+      </c>
+      <c r="B1243" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1243" t="inlineStr"/>
+      <c r="D1243" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="E1243" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1243" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="J1243" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="inlineStr"/>
+      <c r="N1243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="inlineStr">
+        <is>
+          <t>df528fc9-13a1-4819-bb69-a51b760d0852</t>
+        </is>
+      </c>
+      <c r="B1244" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1244" t="inlineStr"/>
+      <c r="D1244" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="E1244" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1244" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J1244" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="inlineStr"/>
+      <c r="N1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="inlineStr">
+        <is>
+          <t>35ea6bfe-112b-46e4-b63c-dfac5ccb7d6e</t>
+        </is>
+      </c>
+      <c r="B1245" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1245" t="inlineStr"/>
+      <c r="D1245" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="E1245" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1245" t="n">
+        <v>-7.75</v>
+      </c>
+      <c r="J1245" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="inlineStr"/>
+      <c r="N1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="inlineStr">
+        <is>
+          <t>e9742163-c168-4601-b329-c0a1e9f351f9</t>
+        </is>
+      </c>
+      <c r="B1246" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C1246" t="inlineStr"/>
+      <c r="D1246" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1246" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1246" t="inlineStr"/>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1246" t="n">
+        <v>1074.39</v>
+      </c>
+      <c r="J1246" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="inlineStr"/>
+      <c r="N1246" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1246"/>
+  <dimension ref="A1:N1266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64688,7 +64688,7 @@
         <v>44970</v>
       </c>
       <c r="C1213" s="2" t="n">
-        <v>44970</v>
+        <v>44990</v>
       </c>
       <c r="D1213" s="2" t="n">
         <v>44966</v>
@@ -64727,7 +64727,7 @@
       </c>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Haircut</t>
         </is>
       </c>
       <c r="N1213" t="n">
@@ -66051,7 +66051,9 @@
       <c r="B1238" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1238" t="inlineStr"/>
+      <c r="C1238" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1238" s="2" t="n">
         <v>44975</v>
       </c>
@@ -66085,9 +66087,13 @@
         </is>
       </c>
       <c r="L1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1238" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
       <c r="N1238" t="n">
         <v>0</v>
       </c>
@@ -66101,7 +66107,9 @@
       <c r="B1239" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1239" t="inlineStr"/>
+      <c r="C1239" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1239" s="2" t="n">
         <v>44974</v>
       </c>
@@ -66135,9 +66143,13 @@
         </is>
       </c>
       <c r="L1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1239" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
       <c r="N1239" t="n">
         <v>0</v>
       </c>
@@ -66151,7 +66163,9 @@
       <c r="B1240" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1240" t="inlineStr"/>
+      <c r="C1240" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1240" s="2" t="n">
         <v>44974</v>
       </c>
@@ -66185,9 +66199,13 @@
         </is>
       </c>
       <c r="L1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1240" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
       <c r="N1240" t="n">
         <v>0</v>
       </c>
@@ -66201,7 +66219,9 @@
       <c r="B1241" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1241" t="inlineStr"/>
+      <c r="C1241" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1241" s="2" t="n">
         <v>44971</v>
       </c>
@@ -66235,9 +66255,13 @@
         </is>
       </c>
       <c r="L1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1241" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
       <c r="N1241" t="n">
         <v>0</v>
       </c>
@@ -66251,7 +66275,9 @@
       <c r="B1242" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1242" t="inlineStr"/>
+      <c r="C1242" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1242" s="2" t="n">
         <v>44971</v>
       </c>
@@ -66285,9 +66311,13 @@
         </is>
       </c>
       <c r="L1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1242" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
       <c r="N1242" t="n">
         <v>0</v>
       </c>
@@ -66301,7 +66331,9 @@
       <c r="B1243" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1243" t="inlineStr"/>
+      <c r="C1243" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1243" s="2" t="n">
         <v>44976</v>
       </c>
@@ -66335,9 +66367,13 @@
         </is>
       </c>
       <c r="L1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1243" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1243" t="n">
         <v>0</v>
       </c>
@@ -66351,7 +66387,9 @@
       <c r="B1244" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1244" t="inlineStr"/>
+      <c r="C1244" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1244" s="2" t="n">
         <v>44976</v>
       </c>
@@ -66385,9 +66423,13 @@
         </is>
       </c>
       <c r="L1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1244" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1244" t="n">
         <v>0</v>
       </c>
@@ -66401,7 +66443,9 @@
       <c r="B1245" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C1245" t="inlineStr"/>
+      <c r="C1245" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1245" s="2" t="n">
         <v>44975</v>
       </c>
@@ -66435,9 +66479,13 @@
         </is>
       </c>
       <c r="L1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1245" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1245" t="n">
         <v>0</v>
       </c>
@@ -66485,6 +66533,1090 @@
       </c>
       <c r="M1246" t="inlineStr"/>
       <c r="N1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="inlineStr">
+        <is>
+          <t>8c0d1dde-135e-4134-9d2e-197454e5e632</t>
+        </is>
+      </c>
+      <c r="B1247" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1247" t="inlineStr"/>
+      <c r="D1247" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="E1247" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1247" t="inlineStr"/>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1247" t="n">
+        <v>2186.84</v>
+      </c>
+      <c r="J1247" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="inlineStr"/>
+      <c r="N1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="inlineStr">
+        <is>
+          <t>0df3bdec-4e8d-4085-b6e1-e49b33650ce0</t>
+        </is>
+      </c>
+      <c r="B1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1248" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="E1248" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>CVS/PHARMACY #06920</t>
+        </is>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>Health &amp; Wellness</t>
+        </is>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1248" t="n">
+        <v>-27.15</v>
+      </c>
+      <c r="J1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1248" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="inlineStr">
+        <is>
+          <t>c1b247ae-7d33-4265-9933-3b89419fabd9</t>
+        </is>
+      </c>
+      <c r="B1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1249" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1249" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>PEARL HARDWARE</t>
+        </is>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1249" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="J1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1249" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+      <c r="N1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="inlineStr">
+        <is>
+          <t>12a23086-9297-496e-bce7-55fca1a5d5c9</t>
+        </is>
+      </c>
+      <c r="B1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1250" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1250" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>CITY OF PORTLAND DEPT</t>
+        </is>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1250" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1250" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="N1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="inlineStr">
+        <is>
+          <t>dcd8495c-bb33-484e-9b02-eba300650966</t>
+        </is>
+      </c>
+      <c r="B1251" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1251" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1251" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="E1251" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>COMCAST CABLE COMM</t>
+        </is>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1251" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="J1251" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1251" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="N1251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="inlineStr">
+        <is>
+          <t>abab1a3d-397b-4af0-8c1d-1c7193930558</t>
+        </is>
+      </c>
+      <c r="B1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1252" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1252" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>GOOGLE *Domains</t>
+        </is>
+      </c>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1252" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1252" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="inlineStr">
+        <is>
+          <t>8d87ca6f-37f1-47f3-a97a-83b7a959341e</t>
+        </is>
+      </c>
+      <c r="B1253" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1253" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1253" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="E1253" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>THE FRISCO BAR &amp;amp; GRILL</t>
+        </is>
+      </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1253" t="n">
+        <v>-36.88</v>
+      </c>
+      <c r="J1253" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1253" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="inlineStr">
+        <is>
+          <t>f5e60baf-78cd-4d7e-8828-3babdc7f617f</t>
+        </is>
+      </c>
+      <c r="B1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1254" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="E1254" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>ANGELINAS RESTAURANT</t>
+        </is>
+      </c>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1254" t="n">
+        <v>-37.92</v>
+      </c>
+      <c r="J1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1254" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="inlineStr">
+        <is>
+          <t>026cc162-e9dc-4c81-89cd-a57b600f11a1</t>
+        </is>
+      </c>
+      <c r="B1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1255" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1255" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1255" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="J1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1255" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="inlineStr">
+        <is>
+          <t>e513dd92-7424-4a7a-868f-ea8106b5ffbc</t>
+        </is>
+      </c>
+      <c r="B1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1256" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1256" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>BAR WEST</t>
+        </is>
+      </c>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1256" t="n">
+        <v>-40</v>
+      </c>
+      <c r="J1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1256" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="inlineStr">
+        <is>
+          <t>02862eca-c48c-442f-a48e-0f4a573f9693</t>
+        </is>
+      </c>
+      <c r="B1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1257" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1257" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1257" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="J1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1257" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="inlineStr">
+        <is>
+          <t>c9c122bf-7090-44aa-9e46-9c4cb019fd81</t>
+        </is>
+      </c>
+      <c r="B1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1258" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1258" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>ARCO#83189GURU NANAK 13</t>
+        </is>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1258" t="n">
+        <v>-42.81</v>
+      </c>
+      <c r="J1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1258" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="inlineStr">
+        <is>
+          <t>4f504a92-096d-423c-ba4e-d79a1e8d83b4</t>
+        </is>
+      </c>
+      <c r="B1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1259" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E1259" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>SAINT HONORE BOULANGERIE</t>
+        </is>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1259" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="J1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1259" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="inlineStr">
+        <is>
+          <t>dbf2acb1-e32c-4dd3-a630-7f10d91f6f15</t>
+        </is>
+      </c>
+      <c r="B1260" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1260" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1260" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="E1260" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1260" t="n">
+        <v>-15.25</v>
+      </c>
+      <c r="J1260" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1260" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="inlineStr">
+        <is>
+          <t>d73b2b92-fde4-4a73-bd17-afa776a9e857</t>
+        </is>
+      </c>
+      <c r="B1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1261" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1261" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1261" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="J1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1261" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="inlineStr">
+        <is>
+          <t>c200d297-987c-4a7c-9f11-8818bfe4c905</t>
+        </is>
+      </c>
+      <c r="B1262" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1262" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E1262" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1262" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J1262" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1262" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="inlineStr">
+        <is>
+          <t>4162d5d9-88e3-46f2-b529-e02d2a3d8d04</t>
+        </is>
+      </c>
+      <c r="B1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E1263" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>SQ *THE DRAGONFLY COFFEE</t>
+        </is>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1263" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="J1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1263" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="inlineStr">
+        <is>
+          <t>01b6d919-a4e2-4e58-b0d6-417d13c79c5d</t>
+        </is>
+      </c>
+      <c r="B1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1264" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1264" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1264" t="n">
+        <v>-84.34999999999999</v>
+      </c>
+      <c r="J1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1264" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="inlineStr">
+        <is>
+          <t>c46c0b49-2fbd-4338-a299-c82e7966e8fb</t>
+        </is>
+      </c>
+      <c r="B1265" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000582661</t>
+        </is>
+      </c>
+      <c r="G1265" t="inlineStr"/>
+      <c r="H1265" t="inlineStr"/>
+      <c r="I1265" t="n">
+        <v>-1074.39</v>
+      </c>
+      <c r="J1265" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="inlineStr"/>
+      <c r="N1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="inlineStr">
+        <is>
+          <t>5c206ce6-cbd3-45fb-ac3c-c67331ce3292</t>
+        </is>
+      </c>
+      <c r="B1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1266" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="n">
+        <v>1830.19</v>
+      </c>
+      <c r="J1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1266" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1266" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1266"/>
+  <dimension ref="A1:N1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67617,6 +67617,1858 @@
         </is>
       </c>
       <c r="N1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="inlineStr">
+        <is>
+          <t>e9a67126-c952-4500-84a0-f0fae8e334fc</t>
+        </is>
+      </c>
+      <c r="B1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1267" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>Steam Purchase</t>
+        </is>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1267" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="J1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1267" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="inlineStr">
+        <is>
+          <t>4c0cd73a-51b8-4c30-b6e4-793dad4d28d0</t>
+        </is>
+      </c>
+      <c r="B1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1268" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>PORTLAND GENERAL ELECTRIC</t>
+        </is>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1268" t="n">
+        <v>-48.81</v>
+      </c>
+      <c r="J1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1268" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="N1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="inlineStr">
+        <is>
+          <t>b498dddb-f4b0-4cd3-88ab-f1a899817d7a</t>
+        </is>
+      </c>
+      <c r="B1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1269" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>ASTRO 206</t>
+        </is>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1269" t="n">
+        <v>-41.99</v>
+      </c>
+      <c r="J1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1269" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="inlineStr">
+        <is>
+          <t>f68bc7b1-3ea5-40c2-8e53-6448f88aa0ea</t>
+        </is>
+      </c>
+      <c r="B1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1270" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1270" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="J1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1270" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="inlineStr">
+        <is>
+          <t>9c637c8a-4d0c-424c-a87c-4cbd1fe62cb7</t>
+        </is>
+      </c>
+      <c r="B1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1271" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>STEAMGAMES.COM 4259522985</t>
+        </is>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1271" t="n">
+        <v>-23.99</v>
+      </c>
+      <c r="J1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1271" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="inlineStr">
+        <is>
+          <t>ef7d3b2c-f755-45c3-b3e5-2061b3445490</t>
+        </is>
+      </c>
+      <c r="B1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1272" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1272" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>WARBY PARKER</t>
+        </is>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>Health &amp; Wellness</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1272" t="n">
+        <v>-195</v>
+      </c>
+      <c r="J1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1272" t="inlineStr">
+        <is>
+          <t>Heathcare</t>
+        </is>
+      </c>
+      <c r="N1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="inlineStr">
+        <is>
+          <t>7ffb5cdb-009c-43a1-b446-da381206c324</t>
+        </is>
+      </c>
+      <c r="B1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1273" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1273" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>FAIRFIELD INN AND SUIT</t>
+        </is>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1273" t="n">
+        <v>-393.24</v>
+      </c>
+      <c r="J1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1273" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="inlineStr">
+        <is>
+          <t>3ce96e40-4f57-42a3-bba5-46c17f721e54</t>
+        </is>
+      </c>
+      <c r="B1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1274" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1274" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>Microsoft*Subscription</t>
+        </is>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1274" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="J1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1274" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="inlineStr">
+        <is>
+          <t>20582c39-6ad9-4e7e-ab98-ac1b3074ef5c</t>
+        </is>
+      </c>
+      <c r="B1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1275" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1275" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>DFW AIRPORT PARKING</t>
+        </is>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1275" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1275" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="inlineStr">
+        <is>
+          <t>2819890c-00dd-4c08-9301-db8936d34e39</t>
+        </is>
+      </c>
+      <c r="B1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1276" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1276" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>AVIS RENT-A-CAR</t>
+        </is>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1276" t="n">
+        <v>-214.35</v>
+      </c>
+      <c r="J1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1276" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="inlineStr">
+        <is>
+          <t>dd994141-8bec-4733-89e9-262d8fcd5595</t>
+        </is>
+      </c>
+      <c r="B1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1277" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1277" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>PDX AIRPORT PARKING</t>
+        </is>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1277" t="n">
+        <v>-120</v>
+      </c>
+      <c r="J1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1277" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="inlineStr">
+        <is>
+          <t>485fc33c-1c78-470f-8ebe-55eaf3a65d70</t>
+        </is>
+      </c>
+      <c r="B1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1278" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1278" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>UBER   TRIP</t>
+        </is>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1278" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="J1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1278" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="inlineStr">
+        <is>
+          <t>13b65cfa-58ef-48ec-946b-cb0a56625f7c</t>
+        </is>
+      </c>
+      <c r="B1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1279" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1279" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>GOOGLE *CLOUD SZT72V</t>
+        </is>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1279" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="J1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1279" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="inlineStr">
+        <is>
+          <t>5c58e7ba-8f0a-4f68-bdc6-d26c9afbcc6e</t>
+        </is>
+      </c>
+      <c r="B1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1280" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1280" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>UBER   TRIP</t>
+        </is>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1280" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1280" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="inlineStr">
+        <is>
+          <t>85a577fa-83c4-4ee4-86da-4821ab11c70e</t>
+        </is>
+      </c>
+      <c r="B1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1281" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1281" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1281" t="n">
+        <v>-85.52</v>
+      </c>
+      <c r="J1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1281" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="inlineStr">
+        <is>
+          <t>23b4733b-e2ff-44e1-ba01-8aa3c8f9ecb2</t>
+        </is>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1282" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1282" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>SIDE STREET TAVERN</t>
+        </is>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1282" t="n">
+        <v>-36</v>
+      </c>
+      <c r="J1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1282" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="inlineStr">
+        <is>
+          <t>bd154dfa-61f0-4320-89c1-5c85fd80c45d</t>
+        </is>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1283" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1283" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>THE BELMONT INN</t>
+        </is>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1283" t="n">
+        <v>-44.25</v>
+      </c>
+      <c r="J1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1283" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="inlineStr">
+        <is>
+          <t>64c462c2-d7e1-4869-8f69-9aeed1e59777</t>
+        </is>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1284" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1284" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1284" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1284" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="inlineStr">
+        <is>
+          <t>9bac04c1-1068-406e-be41-e52b0b7b51a2</t>
+        </is>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1285" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1285" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1285" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1285" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="inlineStr">
+        <is>
+          <t>db7a7776-6f95-464f-885c-6db6d1e69c81</t>
+        </is>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1286" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1286" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>DFW EINSTEINBROS BAGEL</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1286" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="J1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1286" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="inlineStr">
+        <is>
+          <t>6ff39ccd-caba-4525-82fc-a80fa80edbfc</t>
+        </is>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1287" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1287" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1287" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1287" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="inlineStr">
+        <is>
+          <t>8e9d695f-6d6d-45b0-8255-0a7ca0af91d3</t>
+        </is>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1288" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1288" t="n">
+        <v>-33</v>
+      </c>
+      <c r="J1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1288" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="inlineStr">
+        <is>
+          <t>27257308-4331-4e2f-a0f3-5a6d897b8cbc</t>
+        </is>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1289" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>CIRCLE K #2741565</t>
+        </is>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1289" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="J1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1289" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="inlineStr">
+        <is>
+          <t>586f714f-483f-4fa3-858c-046c90fe2a83</t>
+        </is>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1290" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1290" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1290" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="inlineStr">
+        <is>
+          <t>a19632b6-9b6d-47d3-aea3-6351684a0533</t>
+        </is>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1291" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1291" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1291" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="inlineStr">
+        <is>
+          <t>204095a5-c056-42bc-8ca3-c678dbc5788e</t>
+        </is>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1292" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1292" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1292" t="n">
+        <v>-17.56</v>
+      </c>
+      <c r="J1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1292" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="inlineStr">
+        <is>
+          <t>7180fbe3-17a9-44ad-bcc1-da81b89a7a49</t>
+        </is>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1293" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1293" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1293" t="n">
+        <v>-8.66</v>
+      </c>
+      <c r="J1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1293" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="inlineStr">
+        <is>
+          <t>15c0e898-636d-4464-b20a-2816b052398b</t>
+        </is>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1294" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1294" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>TST* TWISTED BAR &amp;amp; GRILL</t>
+        </is>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1294" t="n">
+        <v>-70.45999999999999</v>
+      </c>
+      <c r="J1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1294" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="inlineStr">
+        <is>
+          <t>96e8cd79-49c2-4463-82ab-0a84bb9d7e12</t>
+        </is>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1295" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1295" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>TST* GOOD VIEW BAR</t>
+        </is>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1295" t="n">
+        <v>-11.74</v>
+      </c>
+      <c r="J1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1295" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="inlineStr">
+        <is>
+          <t>c06980c9-0f80-491a-ac86-1174bfa8b944</t>
+        </is>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1296" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1296" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>TST* LEGACY HALL - PLANO</t>
+        </is>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1296" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="J1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1296" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="inlineStr">
+        <is>
+          <t>903d4ac9-5962-40bd-a013-fb45202e18f9</t>
+        </is>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1297" t="inlineStr"/>
+      <c r="D1297" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>Mobile Deposit</t>
+        </is>
+      </c>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr"/>
+      <c r="I1297" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="J1297" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="inlineStr"/>
+      <c r="N1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="inlineStr">
+        <is>
+          <t>2818dc14-84a0-426d-a2f0-0fad2277921b</t>
+        </is>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1298" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr"/>
+      <c r="I1298" t="n">
+        <v>1926.84</v>
+      </c>
+      <c r="J1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1298" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="inlineStr">
+        <is>
+          <t>ce60faa1-2fc6-415b-a12b-ecbec9b7ec20</t>
+        </is>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1299" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1299" t="inlineStr"/>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS Z08C77</t>
+        </is>
+      </c>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr"/>
+      <c r="I1299" t="n">
+        <v>-1630</v>
+      </c>
+      <c r="J1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1299" t="inlineStr">
+        <is>
+          <t>Housing</t>
+        </is>
+      </c>
+      <c r="N1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="inlineStr">
+        <is>
+          <t>7931b448-64cf-4d86-ad0e-57db6f5b928e</t>
+        </is>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000521862</t>
+        </is>
+      </c>
+      <c r="G1300" t="inlineStr"/>
+      <c r="H1300" t="inlineStr"/>
+      <c r="I1300" t="n">
+        <v>-2186.84</v>
+      </c>
+      <c r="J1300" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="inlineStr"/>
+      <c r="N1300" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backups/transactions.xlsx
+++ b/backups/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1307"/>
+  <dimension ref="A1:N1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,7 +804,7 @@
         <v>44961</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44961</v>
+        <v>45010</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>44955</v>
@@ -69861,6 +69861,574 @@
         </is>
       </c>
       <c r="N1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="inlineStr">
+        <is>
+          <t>13e1e702-eda8-42b2-b155-f0123483a55f</t>
+        </is>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1308" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="E1308" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>ALL HEART YOGA</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1308" t="n">
+        <v>-128</v>
+      </c>
+      <c r="J1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1308" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="N1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="inlineStr">
+        <is>
+          <t>c2fa45d3-b0b8-4f62-adf5-1758500a7f1e</t>
+        </is>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1309" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="E1309" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>76 - N &amp;amp; S OIL LLC</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1309" t="n">
+        <v>-50.69</v>
+      </c>
+      <c r="J1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1309" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="inlineStr">
+        <is>
+          <t>1b59256c-d81b-43a8-a994-fc194e0cc2b8</t>
+        </is>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="E1310" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1310" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1310" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="inlineStr">
+        <is>
+          <t>bb1e9ddc-cf82-438b-850c-663dff61d434</t>
+        </is>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1311" t="inlineStr"/>
+      <c r="D1311" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1311" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1311" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="J1311" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="inlineStr"/>
+      <c r="N1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="inlineStr">
+        <is>
+          <t>478971e1-7c89-4fbd-8ecf-4fbcbf68638a</t>
+        </is>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1312" t="inlineStr"/>
+      <c r="D1312" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1312" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1312" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J1312" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="inlineStr"/>
+      <c r="N1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="inlineStr">
+        <is>
+          <t>bc6d7582-d4b1-4073-bd4f-22d9861b805c</t>
+        </is>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1313" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="E1313" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1313" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1313" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="inlineStr">
+        <is>
+          <t>f81ec346-f79a-43c3-a290-a66000eedc3b</t>
+        </is>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1314" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="E1314" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>TRADER JOE S #146</t>
+        </is>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1314" t="n">
+        <v>-47.87</v>
+      </c>
+      <c r="J1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1314" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="inlineStr">
+        <is>
+          <t>81e43760-19a4-4de4-8b18-b9a4873f0826</t>
+        </is>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="E1315" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1315" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1315" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="inlineStr">
+        <is>
+          <t>005bc93a-2340-4d5b-bef4-eb325a82bb51</t>
+        </is>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1316" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1316" t="n">
+        <v>1213.03</v>
+      </c>
+      <c r="J1316" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="inlineStr"/>
+      <c r="N1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="inlineStr">
+        <is>
+          <t>8b2915f5-f43e-4e5f-b4ac-2ca7cd3e7d1a</t>
+        </is>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000591754</t>
+        </is>
+      </c>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="n">
+        <v>-1213.03</v>
+      </c>
+      <c r="J1317" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="inlineStr"/>
+      <c r="N1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="inlineStr">
+        <is>
+          <t>6001dbb7-9517-48bf-ac95-60c5b5399008</t>
+        </is>
+      </c>
+      <c r="B1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1318" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="n">
+        <v>1743.68</v>
+      </c>
+      <c r="J1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1318" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1318" t="n">
         <v>0</v>
       </c>
     </row>
